--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H2">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>0.1205530997165684</v>
+        <v>0.25269126024</v>
       </c>
       <c r="R2">
-        <v>0.1205530997165684</v>
+        <v>2.27422134216</v>
       </c>
       <c r="S2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="T2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H3">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>10.08365352711394</v>
+        <v>16.60764262914223</v>
       </c>
       <c r="R3">
-        <v>10.08365352711394</v>
+        <v>149.46878366228</v>
       </c>
       <c r="S3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="T3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H4">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.03719064471715753</v>
+        <v>0.08429853899111113</v>
       </c>
       <c r="R4">
-        <v>0.03719064471715753</v>
+        <v>0.7586868509200001</v>
       </c>
       <c r="S4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="T4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H5">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>0.09236950589576304</v>
+        <v>0.15848244448</v>
       </c>
       <c r="R5">
-        <v>0.09236950589576304</v>
+        <v>1.42634200032</v>
       </c>
       <c r="S5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="T5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H6">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>0.5475762589889052</v>
+        <v>0.9186709255555556</v>
       </c>
       <c r="R6">
-        <v>0.5475762589889052</v>
+        <v>8.26803833</v>
       </c>
       <c r="S6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="T6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H7">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>3.537399777595107</v>
+        <v>7.156690833924445</v>
       </c>
       <c r="R7">
-        <v>3.537399777595107</v>
+        <v>64.41021750532001</v>
       </c>
       <c r="S7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="T7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
     </row>
   </sheetData>
